--- a/Refinitiv/Analysis/CN/CN_Descriptive Statistics.xlsx
+++ b/Refinitiv/Analysis/CN/CN_Descriptive Statistics.xlsx
@@ -740,7 +740,7 @@
         <v>4143</v>
       </c>
       <c r="R2" t="n">
-        <v>4676</v>
+        <v>4671</v>
       </c>
       <c r="S2" t="n">
         <v>4676</v>
@@ -824,66 +824,6 @@
       <c r="D3" t="n">
         <v>934</v>
       </c>
-      <c r="G3" t="n">
-        <v>2870</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2528</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2866</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2867</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2593</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2594</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2870</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2870</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2983</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3872</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4143</v>
-      </c>
-      <c r="R3" t="n">
-        <v>869</v>
-      </c>
-      <c r="S3" t="n">
-        <v>934</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4611</v>
-      </c>
-      <c r="U3" t="n">
-        <v>934</v>
-      </c>
-      <c r="V3" t="n">
-        <v>4516</v>
-      </c>
-      <c r="W3" t="n">
-        <v>934</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4143</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>4472</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>3872</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -901,66 +841,6 @@
           <t>002138.SZ</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>49.6990850453204</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10.5607476635513</v>
-      </c>
-      <c r="J4" t="n">
-        <v>49.4779737094727</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1734.210398687315</v>
-      </c>
-      <c r="N4" t="n">
-        <v>122756.6930636035</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30.554345365</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>19.500831947</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.30304624462231</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4.565319207</v>
-      </c>
-      <c r="U4" t="n">
-        <v>40.5238236335267</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4278168764.26642</v>
-      </c>
-      <c r="W4" t="n">
-        <v>38.6393013710938</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.05127986348058548</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.930071541</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.42810422013652</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -974,66 +854,6 @@
       <c r="D5" t="n">
         <v>6</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>277</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>277</v>
-      </c>
-      <c r="L5" t="n">
-        <v>277</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>9</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>330</v>
-      </c>
-      <c r="S5" t="n">
-        <v>6</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>6</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1050,9 +870,63 @@
       <c r="F6" t="n">
         <v>2019.003849443969</v>
       </c>
+      <c r="G6" t="n">
+        <v>33.70706578089985</v>
+      </c>
+      <c r="H6" t="n">
+        <v>28.33334874496765</v>
+      </c>
+      <c r="I6" t="n">
+        <v>27.56358640248537</v>
+      </c>
+      <c r="J6" t="n">
+        <v>46.2498465803177</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1067.891418394534</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1433.696162711349</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1361.401587873374</v>
+      </c>
+      <c r="N6" t="n">
+        <v>65663.71232334647</v>
+      </c>
+      <c r="O6" t="n">
+        <v>29.22150861250581</v>
+      </c>
+      <c r="P6" t="n">
+        <v>57.56264489843852</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>53.91370850003503</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.9796489454155428</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9913664478159142</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6.396770864357124</v>
+      </c>
+      <c r="U6" t="n">
+        <v>35.46345637733479</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9702984304.326397</v>
+      </c>
+      <c r="W6" t="n">
+        <v>33.09201236408795</v>
+      </c>
       <c r="X6" t="n">
         <v>-0.03177431545154452</v>
       </c>
+      <c r="Y6" t="n">
+        <v>0.05832860183925946</v>
+      </c>
       <c r="Z6" t="n">
         <v>0.0581129291862519</v>
       </c>
@@ -1062,6 +936,9 @@
       <c r="AB6" t="n">
         <v>-7.631945870462095e-17</v>
       </c>
+      <c r="AC6" t="n">
+        <v>8.784963576817454</v>
+      </c>
       <c r="AD6" t="n">
         <v>8.642908199566909</v>
       </c>
@@ -1071,6 +948,9 @@
       <c r="AF6" t="n">
         <v>-4.011897155174984e-17</v>
       </c>
+      <c r="AG6" t="n">
+        <v>3.503230803844962</v>
+      </c>
       <c r="AH6" t="n">
         <v>3.466434033079893</v>
       </c>
@@ -1111,9 +991,63 @@
       <c r="F7" t="n">
         <v>1.417531990227148</v>
       </c>
+      <c r="G7" t="n">
+        <v>15.89668564686598</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22.83687830675238</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18.50104075830211</v>
+      </c>
+      <c r="J7" t="n">
+        <v>20.32326413742491</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1344.040758952771</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1454.214189181862</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1222.38798680411</v>
+      </c>
+      <c r="N7" t="n">
+        <v>84479.82102692958</v>
+      </c>
+      <c r="O7" t="n">
+        <v>72.22063295484895</v>
+      </c>
+      <c r="P7" t="n">
+        <v>437.2345687474991</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>267.7276731218359</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.4824458265927976</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.3360628373851443</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8.048556518006695</v>
+      </c>
+      <c r="U7" t="n">
+        <v>10.6938924936928</v>
+      </c>
+      <c r="V7" t="n">
+        <v>23007356151.29241</v>
+      </c>
+      <c r="W7" t="n">
+        <v>11.44163739084912</v>
+      </c>
       <c r="X7" t="n">
         <v>0.6695900605883678</v>
       </c>
+      <c r="Y7" t="n">
+        <v>0.06068279104158179</v>
+      </c>
       <c r="Z7" t="n">
         <v>0.02571533980395131</v>
       </c>
@@ -1123,6 +1057,9 @@
       <c r="AB7" t="n">
         <v>0.9930954295082078</v>
       </c>
+      <c r="AC7" t="n">
+        <v>241.1913262590866</v>
+      </c>
       <c r="AD7" t="n">
         <v>25.42552672748673</v>
       </c>
@@ -1132,6 +1069,9 @@
       <c r="AF7" t="n">
         <v>0.9936051399997647</v>
       </c>
+      <c r="AG7" t="n">
+        <v>22.9911978011673</v>
+      </c>
       <c r="AH7" t="n">
         <v>2.518600336730883</v>
       </c>
@@ -1172,9 +1112,63 @@
       <c r="F8" t="n">
         <v>2017</v>
       </c>
+      <c r="G8" t="n">
+        <v>0.651094295417696</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.592213677561109</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.289514866979655</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.36843861108407</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.2760143558431286</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.320291022</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.6044617289999999</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.08530137450098001</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-95.689276874</v>
+      </c>
+      <c r="U8" t="n">
+        <v>12.2371493409578</v>
+      </c>
+      <c r="V8" t="n">
+        <v>195987651.436259</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.965642489855091</v>
+      </c>
       <c r="X8" t="n">
         <v>-5.387750531920982</v>
       </c>
+      <c r="Y8" t="n">
+        <v>8.58034321372881e-05</v>
+      </c>
       <c r="Z8" t="n">
         <v>0.01996722931284832</v>
       </c>
@@ -1184,6 +1178,9 @@
       <c r="AB8" t="n">
         <v>-2.135499545447593</v>
       </c>
+      <c r="AC8" t="n">
+        <v>0.030752545083567</v>
+      </c>
       <c r="AD8" t="n">
         <v>1.264856456833988</v>
       </c>
@@ -1193,6 +1190,9 @@
       <c r="AF8" t="n">
         <v>-1.286860512205797</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0.01984189847756097</v>
+      </c>
       <c r="AH8" t="n">
         <v>0.8679499033296374</v>
       </c>
@@ -1233,9 +1233,63 @@
       <c r="F9" t="n">
         <v>2018</v>
       </c>
+      <c r="G9" t="n">
+        <v>21.51932351792345</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.810816534404218</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.2900707911852</v>
+      </c>
+      <c r="J9" t="n">
+        <v>30.18440560462735</v>
+      </c>
+      <c r="K9" t="n">
+        <v>105.6124499945733</v>
+      </c>
+      <c r="L9" t="n">
+        <v>300.942610889746</v>
+      </c>
+      <c r="M9" t="n">
+        <v>458.937770674755</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9965.260152541205</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7.2156382705</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>13.25919283227005</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.709206999178785</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.745876159771098</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.0033980695</v>
+      </c>
+      <c r="U9" t="n">
+        <v>27.3971368905565</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2292567215.601425</v>
+      </c>
+      <c r="W9" t="n">
+        <v>24.5297018565522</v>
+      </c>
       <c r="X9" t="n">
         <v>-0.2615312579609079</v>
       </c>
+      <c r="Y9" t="n">
+        <v>0.02125709699865266</v>
+      </c>
       <c r="Z9" t="n">
         <v>0.03893555768456479</v>
       </c>
@@ -1245,6 +1299,9 @@
       <c r="AB9" t="n">
         <v>-0.6765929816622582</v>
       </c>
+      <c r="AC9" t="n">
+        <v>1.007832366053333</v>
+      </c>
       <c r="AD9" t="n">
         <v>2.922017331743801</v>
       </c>
@@ -1254,6 +1311,9 @@
       <c r="AF9" t="n">
         <v>-0.5395482844799123</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.5718624931287699</v>
+      </c>
       <c r="AH9" t="n">
         <v>1.858015716803369</v>
       </c>
@@ -1294,9 +1354,63 @@
       <c r="F10" t="n">
         <v>2019</v>
       </c>
+      <c r="G10" t="n">
+        <v>31.771844482157</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24.4360034294591</v>
+      </c>
+      <c r="I10" t="n">
+        <v>23.15046937562665</v>
+      </c>
+      <c r="J10" t="n">
+        <v>45.0934205810732</v>
+      </c>
+      <c r="K10" t="n">
+        <v>475.7140092095898</v>
+      </c>
+      <c r="L10" t="n">
+        <v>968.1687881289047</v>
+      </c>
+      <c r="M10" t="n">
+        <v>985.5744766587961</v>
+      </c>
+      <c r="N10" t="n">
+        <v>32072.11559044857</v>
+      </c>
+      <c r="O10" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="P10" t="n">
+        <v>16.83714295776245</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>24.439861386</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.994373256099218</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.987780430860029</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4.7018282818</v>
+      </c>
+      <c r="U10" t="n">
+        <v>35.4477774939148</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3945383378.846955</v>
+      </c>
+      <c r="W10" t="n">
+        <v>32.5367721986685</v>
+      </c>
       <c r="X10" t="n">
         <v>-0.005618588344751183</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.04091676234190243</v>
+      </c>
       <c r="Z10" t="n">
         <v>0.0522060943750262</v>
       </c>
@@ -1306,6 +1420,9 @@
       <c r="AB10" t="n">
         <v>-0.2199838715846579</v>
       </c>
+      <c r="AC10" t="n">
+        <v>2.38713078079621</v>
+      </c>
       <c r="AD10" t="n">
         <v>4.468915563678149</v>
       </c>
@@ -1315,6 +1432,9 @@
       <c r="AF10" t="n">
         <v>-0.2986443192685244</v>
       </c>
+      <c r="AG10" t="n">
+        <v>1.108733225396588</v>
+      </c>
       <c r="AH10" t="n">
         <v>2.934621107499625</v>
       </c>
@@ -1355,9 +1475,63 @@
       <c r="F11" t="n">
         <v>2020</v>
       </c>
+      <c r="G11" t="n">
+        <v>44.49316748563908</v>
+      </c>
+      <c r="H11" t="n">
+        <v>44.69729700948577</v>
+      </c>
+      <c r="I11" t="n">
+        <v>39.81119270538638</v>
+      </c>
+      <c r="J11" t="n">
+        <v>63.14093354771798</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1611.299736103388</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2127.211568154549</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1900.673544761133</v>
+      </c>
+      <c r="N11" t="n">
+        <v>88080.54127036955</v>
+      </c>
+      <c r="O11" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>38.014282322</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>47.0431741845893</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.2655111659106</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.21827959640124</v>
+      </c>
+      <c r="T11" t="n">
+        <v>9.3896086345</v>
+      </c>
+      <c r="U11" t="n">
+        <v>42.0905114978382</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7873099174.596102</v>
+      </c>
+      <c r="W11" t="n">
+        <v>40.0118179020734</v>
+      </c>
       <c r="X11" t="n">
         <v>0.2810916431267112</v>
       </c>
+      <c r="Y11" t="n">
+        <v>0.07541939910015569</v>
+      </c>
       <c r="Z11" t="n">
         <v>0.0751039519273615</v>
       </c>
@@ -1367,6 +1541,9 @@
       <c r="AB11" t="n">
         <v>0.4496821079722421</v>
       </c>
+      <c r="AC11" t="n">
+        <v>5.6847155725</v>
+      </c>
       <c r="AD11" t="n">
         <v>6.570266411992907</v>
       </c>
@@ -1376,6 +1553,9 @@
       <c r="AF11" t="n">
         <v>0.147119854398384</v>
       </c>
+      <c r="AG11" t="n">
+        <v>2.292691430030193</v>
+      </c>
       <c r="AH11" t="n">
         <v>3.787293062149407</v>
       </c>
@@ -1416,9 +1596,63 @@
       <c r="F12" t="n">
         <v>2022</v>
       </c>
+      <c r="G12" t="n">
+        <v>83.5074059365155</v>
+      </c>
+      <c r="H12" t="n">
+        <v>93.3945755527551</v>
+      </c>
+      <c r="I12" t="n">
+        <v>93.0309717928702</v>
+      </c>
+      <c r="J12" t="n">
+        <v>93.3877184731074</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7562.459395633622</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7296.496723533623</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7792.219363268558</v>
+      </c>
+      <c r="N12" t="n">
+        <v>582337.7968624146</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2050</v>
+      </c>
+      <c r="P12" t="n">
+        <v>23572.51592436</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>11654.5454545451</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.27274160802743</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.15987087037326</v>
+      </c>
+      <c r="T12" t="n">
+        <v>87.9587540382</v>
+      </c>
+      <c r="U12" t="n">
+        <v>80.4222235607316</v>
+      </c>
+      <c r="V12" t="n">
+        <v>405410099022.37</v>
+      </c>
+      <c r="W12" t="n">
+        <v>91.5618122495579</v>
+      </c>
       <c r="X12" t="n">
         <v>3.875917095914899</v>
       </c>
+      <c r="Y12" t="n">
+        <v>1.654364456876971</v>
+      </c>
       <c r="Z12" t="n">
         <v>0.1360595253886293</v>
       </c>
@@ -1428,6 +1662,9 @@
       <c r="AB12" t="n">
         <v>8.951532380442881</v>
       </c>
+      <c r="AC12" t="n">
+        <v>16123.570794198</v>
+      </c>
       <c r="AD12" t="n">
         <v>180.6003543387001</v>
       </c>
@@ -1436,6 +1673,9 @@
       </c>
       <c r="AF12" t="n">
         <v>9.797658212614074</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1155.515486488235</v>
       </c>
       <c r="AH12" t="n">
         <v>14.16059112049283</v>
@@ -2051,7 +2291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2214,241 +2454,251 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>beta_6m</t>
+          <t>beta_5y</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.138810371329932</v>
+        <v>0.914562158242985</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>roa</t>
+          <t>beta_6m</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18.37655965799069</v>
+        <v>-0.138810371329932</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>vol_180d</t>
+          <t>roa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4148134756342636</v>
+        <v>18.37655965799069</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mv</t>
+          <t>vol_180d</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14714736048762</v>
+        <v>0.4148134756342636</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vol_90d</t>
+          <t>mv</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.667648284763496</v>
+        <v>82.14714736048762</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ret_ln</t>
+          <t>vol_90d</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.796527036907859</v>
+        <v>1.667648284763496</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ep</t>
+          <t>ret_ln</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>125.7203667398869</v>
+        <v>7.796527036907859</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ep_sec_mean</t>
+          <t>ep</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1888836371096545</v>
+        <v>125.7203667398869</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ep_sec_sd</t>
+          <t>ep_sec_mean</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11.34863726735649</v>
+        <v>0.1888836371096545</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ep_z</t>
+          <t>ep_sec_sd</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.459455120753128</v>
+        <v>11.34863726735649</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sp</t>
+          <t>ep_z</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4460.025492677588</v>
+        <v>7.459455120753128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sp_sec_mean</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>41.36204516074614</v>
+        <v>4460.025492677588</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sp_sec_sd</t>
+          <t>sp_sec_mean</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42.27622628388832</v>
+        <v>41.36204516074614</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sp_z</t>
+          <t>sp_sec_sd</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20.07069145239585</v>
+        <v>42.27622628388832</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cfp</t>
+          <t>sp_z</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1682.730996375843</v>
+        <v>20.07069145239585</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>cfp_sec_mean</t>
+          <t>cfp</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.464943033655857</v>
+        <v>1682.730996375843</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>cfp_sec_sd</t>
+          <t>cfp_sec_mean</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20.79904942290312</v>
+        <v>7.464943033655857</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>cfp_z</t>
+          <t>cfp_sec_sd</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>42.23150052726508</v>
+        <v>20.79904942290312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>cfp_z</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.05479503483588</v>
+        <v>42.23150052726508</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>roa_sec_mean</t>
+          <t>value</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.3352815811759973</v>
+        <v>40.05479503483588</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>roa_sec_sd</t>
+          <t>roa_sec_mean</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.120419184301017</v>
+        <v>-0.3352815811759973</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>roa_z</t>
+          <t>roa_sec_sd</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11.4641261568946</v>
+        <v>2.120419184301017</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>esg_value</t>
+          <t>roa_z</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.2983003669226592</v>
+        <v>11.4641261568946</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>esg_value</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.2983003669226592</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>kurtosis_mean</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>276.6747584532789</v>
+      <c r="B40" t="n">
+        <v>269.4179111823569</v>
       </c>
     </row>
   </sheetData>
